--- a/data/emergency.xlsx
+++ b/data/emergency.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A838D784-FD7B-4F14-8A62-A2FEB81979F2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5036C663-B0B1-42F5-9C5A-021886444665}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2595" yWindow="7245" windowWidth="24795" windowHeight="8055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2565" yWindow="7155" windowWidth="24795" windowHeight="8055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="emergency" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="61">
   <si>
     <t>模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -180,6 +180,86 @@
   <si>
     <t>【查询应急事件类型】请求参数为空</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emergency_type</t>
+  </si>
+  <si>
+    <t>emergency_list</t>
+  </si>
+  <si>
+    <t>emergency_list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emergency_list_ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emergency_list_error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emergency_list_null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>state=0&amp;resourceCode=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>state=&amp;resourceCode=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>state=3&amp;resourceCode=123456789</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>fail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【查询应急事件列表】正常请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【查询应急事件列表】请求参数错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【查询应急事件列表】请求参数为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emergency_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interface</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emergency_list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rest/getbyenereventlist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/rest/getbyenereventlist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源编码不能为空！</t>
   </si>
 </sst>
 </file>
@@ -240,10 +320,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -530,122 +613,222 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FAD59EF-31DD-4653-B7B0-75663DFFF666}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
-    <col min="2" max="2" width="29.625" customWidth="1"/>
-    <col min="3" max="3" width="107.875" customWidth="1"/>
-    <col min="4" max="4" width="12.875" customWidth="1"/>
-    <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="8" max="8" width="21.625" customWidth="1"/>
+    <col min="1" max="1" width="17.75" customWidth="1"/>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
+    <col min="3" max="3" width="29.625" customWidth="1"/>
+    <col min="4" max="4" width="107.875" customWidth="1"/>
+    <col min="5" max="5" width="12.875" customWidth="1"/>
+    <col min="6" max="6" width="14" style="3" customWidth="1"/>
+    <col min="9" max="9" width="21.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>25</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>26</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>28</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>29</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
         <v>33</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>36</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>20</v>
       </c>
-      <c r="E2">
+      <c r="F2" s="3">
         <v>200</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>30</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>31</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
         <v>34</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>36</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>20</v>
       </c>
-      <c r="E3">
+      <c r="F3" s="3">
         <v>200</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>30</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>31</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" t="s">
         <v>35</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>36</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>20</v>
       </c>
-      <c r="E4">
+      <c r="F4" s="3">
         <v>200</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>30</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="3">
+        <v>200</v>
+      </c>
+      <c r="G5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" t="s">
         <v>31</v>
       </c>
-      <c r="H4" t="s">
-        <v>39</v>
+      <c r="I5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="3">
+        <v>200</v>
+      </c>
+      <c r="G6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="3">
+        <v>200</v>
+      </c>
+      <c r="G7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I7" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="http://ctc-api.test.daqsoft.com/v2/res/api/scenic/getApiScenicList" xr:uid="{5E33D0AF-2EA0-43CA-8063-F481CB4C1A2E}"/>
-    <hyperlink ref="B3:B4" r:id="rId2" display="http://ctc-api.test.daqsoft.com/v2/res/api/scenic/getApiScenicList" xr:uid="{DE1A5961-D429-46CF-B847-783A212A263C}"/>
+    <hyperlink ref="C2" r:id="rId1" display="http://ctc-api.test.daqsoft.com/v2/res/api/scenic/getApiScenicList" xr:uid="{5E33D0AF-2EA0-43CA-8063-F481CB4C1A2E}"/>
+    <hyperlink ref="C3:C4" r:id="rId2" display="http://ctc-api.test.daqsoft.com/v2/res/api/scenic/getApiScenicList" xr:uid="{DE1A5961-D429-46CF-B847-783A212A263C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -670,30 +853,30 @@
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="4" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
       <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
